--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s3_P5_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s3_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.42003702099418</v>
+        <v>1083.518829430944</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5.575377337951518</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.441553087125036</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>42.53018219295431</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.10555953090582</v>
+        <v>38.9259431076176</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.23570364914818</v>
+        <v>27.30976054153059</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.56872016525512</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.25177335971647</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38.54711261803086</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,146 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.4099999999994</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>156.3</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>150.5049999999994</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>154.0549999999994</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>149.7249999999994</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.72499999999985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>42.39499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>38.17499999999987</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.26499999999986</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>112.9200000000002</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>114.9300000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>123.5850000000002</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>108.7650000000002</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>115.85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>158.8950000000009</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>160.3750000000009</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>165.9450000000009</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>164.0850000000009</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>167.35</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>158.8950000000009</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>160.3750000000009</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>165.9450000000009</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>164.0850000000009</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>167.35</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>151.4099999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>156.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>150.5049999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>154.0549999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>149.7249999999994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1720,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1888,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,6 +2108,116 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
